--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>839836.7898725803</v>
+        <v>837276.6057127147</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9237950181626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>381.4859536980651</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>81.21182540108268</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.4766399021963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7.157261199727826</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>288.2837021944445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
-        <v>171.2149811187984</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>266.4388874644129</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>246.3360745058928</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>25.20071824821735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>163.9656095773493</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329753</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>186.358031374893</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009508</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.6164679420474</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337148</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>319.4395745411763</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>89.97676987682947</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.018581172448962</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552912</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26.05480806223559</v>
+        <v>120.7871326503977</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8253826161915776</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>128.52514510361</v>
+        <v>20.43112068613192</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.55707494718486</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.79222725775096</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0.8253826161912627</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>111.3213230702137</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>90.14863908058121</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428143</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>147.2606364488705</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.48398066551</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>1395.48398066551</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>1037.21828205876</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>651.4300294605152</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.593687005981</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270161</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.94973892659</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.94973892659</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1395.48398066551</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1395.48398066551</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919908</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>939.770065904978</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074498</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.03939913952</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>939.770065904978</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.635933406614</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.635933406614</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>447.5189834864568</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188881</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188881</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1606.635933406614</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1606.635933406614</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.0498276483066</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>346.0498276483066</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
         <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880306</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>700.6427178510701</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>527.6982924785464</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>527.6982924785464</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.9374416333219</v>
+        <v>1067.685314683798</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>1067.685314683798</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>709.4196160770477</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190807</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847236</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577122</v>
+        <v>1831.29040492069</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316042</v>
+        <v>1457.82464665961</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.9374416333219</v>
+        <v>1067.685314683798</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143488</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458207</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1861.380351120609</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2555.949435236614</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.5734018828554</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>648.5734018828554</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D10" t="n">
-        <v>498.4567624705196</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5436688881265</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F10" t="n">
-        <v>350.5436688881265</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5572041964051</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1274.19554437845</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>985.0772068822876</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063346</v>
+        <v>730.3927186764007</v>
       </c>
       <c r="W10" t="n">
-        <v>869.3659810263855</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="X10" t="n">
-        <v>869.3659810263855</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.5734018828554</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2228.165453928314</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1859.202936987903</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1500.937238381153</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1115.148985782908</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>704.1630809933006</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>289.5876353229477</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386838</v>
@@ -5051,40 +5051,40 @@
         <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234593</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867201</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523631</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.231052253516</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.765293992436</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2614.765293992436</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649601</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282785</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.081882663713</v>
+        <v>203.8650582458543</v>
       </c>
       <c r="C13" t="n">
-        <v>835.1456997358064</v>
+        <v>203.8650582458542</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234706</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
         <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
         <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551106</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551106</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551106</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.818336991394</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.133848785507</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.716678748546</v>
+        <v>834.2956531176415</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.716678748546</v>
+        <v>606.3061022196241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1185.730347493953</v>
+        <v>385.513523076094</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5276,10 +5276,10 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
         <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469742</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126171</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856057</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.767307610259</v>
+        <v>561.9183350635715</v>
       </c>
       <c r="C16" t="n">
-        <v>795.8311246823521</v>
+        <v>561.9183350635715</v>
       </c>
       <c r="D16" t="n">
-        <v>645.7144852700162</v>
+        <v>561.9183350635715</v>
       </c>
       <c r="E16" t="n">
-        <v>497.8013916876232</v>
+        <v>414.0052414811785</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9114441897129</v>
+        <v>267.1152939832682</v>
       </c>
       <c r="G16" t="n">
-        <v>183.6972493642918</v>
+        <v>99.90109915784706</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>99.90109915784706</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608048</v>
@@ -5461,25 +5461,25 @@
         <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.375774410167</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>2139.299560724894</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>1884.615072519007</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W16" t="n">
-        <v>1595.197902482046</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>1367.208351584029</v>
+        <v>964.3593790373413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1146.415772440499</v>
+        <v>743.5667998938112</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>114.9565346495164</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474263</v>
+        <v>363.7369613277356</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474263</v>
+        <v>215.8238677453426</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474263</v>
+        <v>215.8238677453426</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,10 +6130,10 @@
         <v>261.8464821474265</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,34 +6145,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
         <v>2044.506784258106</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,22 +6397,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854706</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179079</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>593.611586390001</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>593.6115863900009</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>593.6115863900009</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>446.7216388920906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>279.5255396069704</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>137.8137084491686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.340348461438</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179079</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>945.4026036630033</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>776.4664207350964</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>626.3497813227607</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>478.4366877403675</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>331.5467402424571</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630033</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7163,25 +7163,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,34 +7190,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230629</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>94.65038286230629</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797744</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.471598953659</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>853.5941094450259</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>703.4774700326901</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>555.564376450297</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>408.6744289523866</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7582,7 +7582,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2298.214965955139</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2078.61350097808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>138.9393975111063</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130767</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N6" t="n">
-        <v>231.2582814363232</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780633</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071646</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>27.39221874048003</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803228</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>103.2106853057842</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726158</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.9681854100474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729275</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>50.29152613729275</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>50.47721991512445</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>74.78599557196009</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067397</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>139.4693302300333</v>
+        <v>44.73700564187114</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
-        <v>46.45968844823108</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>38.72167599501779</v>
+        <v>146.8157004124959</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>37.70876137138066</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>151.7319110345179</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237427</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>106.0841272570746</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>75.37549921168764</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228773</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>33.76564955277411</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908993.1282499286</v>
+        <v>908993.1282499284</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>994854.0242703812</v>
+        <v>994854.0242703811</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>994854.0242703811</v>
+        <v>994854.024270381</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>994854.0242703811</v>
+        <v>994854.024270381</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>994854.0242703811</v>
+        <v>994854.024270381</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>994854.0242703812</v>
+        <v>994854.024270381</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>994854.0242703812</v>
+        <v>994854.0242703811</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>994854.0242703812</v>
+        <v>994854.024270381</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>994854.0242703811</v>
+        <v>994854.024270381</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713452</v>
+        <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.964837253</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="P2" t="n">
         <v>423751.9648372532</v>
@@ -26375,7 +26375,7 @@
         <v>325187.1190357064</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051373</v>
+        <v>166521.3471051378</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557934</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26399,10 +26399,10 @@
         <v>84929.59434456824</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848906</v>
+        <v>43782.40655848898</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224648</v>
+        <v>3023.297977224857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6798.303539401317</v>
@@ -26430,16 +26430,16 @@
         <v>6890.891875482008</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707363</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670737</v>
+        <v>6897.424496707362</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
@@ -26451,13 +26451,13 @@
         <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707419</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-908552.3536686408</v>
+        <v>-908552.3536686407</v>
       </c>
       <c r="C6" t="n">
-        <v>206199.4299072791</v>
+        <v>206199.4299072793</v>
       </c>
       <c r="D6" t="n">
         <v>206199.4299072791</v>
       </c>
       <c r="E6" t="n">
-        <v>-31124.70676590969</v>
+        <v>-31334.67100975459</v>
       </c>
       <c r="F6" t="n">
-        <v>147852.5126155084</v>
+        <v>147806.6076199422</v>
       </c>
       <c r="G6" t="n">
-        <v>304564.7742810594</v>
+        <v>304530.0363556237</v>
       </c>
       <c r="H6" t="n">
-        <v>315732.0105166388</v>
+        <v>315697.272591203</v>
       </c>
       <c r="I6" t="n">
-        <v>315732.0105166387</v>
+        <v>315697.2725912029</v>
       </c>
       <c r="J6" t="n">
-        <v>148126.8327066564</v>
+        <v>148092.0947812204</v>
       </c>
       <c r="K6" t="n">
-        <v>315732.0105166389</v>
+        <v>315697.2725912031</v>
       </c>
       <c r="L6" t="n">
-        <v>315732.0105166386</v>
+        <v>315697.272591203</v>
       </c>
       <c r="M6" t="n">
-        <v>230802.4161720705</v>
+        <v>230767.6782466347</v>
       </c>
       <c r="N6" t="n">
-        <v>271949.6039581497</v>
+        <v>271914.8660327138</v>
       </c>
       <c r="O6" t="n">
-        <v>312708.7125394139</v>
+        <v>312673.9746139781</v>
       </c>
       <c r="P6" t="n">
-        <v>315732.0105166387</v>
+        <v>315697.272591203</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086482</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770167</v>
+        <v>278.1053753770166</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288375</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>340.8034957086091</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173578</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364234</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,10 +27045,10 @@
         <v>340.8034957086091</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173578</v>
+        <v>178.7569625173581</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>340.8034957086091</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173578</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364234</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>289.9522507235489</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>4.751984957988498</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>170.9258179227453</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.10801344989852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>374.773108872534</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>81.44739848402457</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
-        <v>54.4946742702387</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>115.4914826078489</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>139.9018641501608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>122.0507909069115</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>56.78308641986268</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.477630421036315e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256416</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0541786324409</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147138</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>179.5642660017245</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
@@ -31911,43 +31911,43 @@
         <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>393.3904345522228</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>530.1364971039803</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>380.8714430074307</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N6" t="n">
-        <v>622.4553810291972</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215482</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>6.454437538930121</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457674</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>93.92014471042263</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313805</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>36.96802155728008</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936564</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8360547723487</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
